--- a/Embedded_Qs/convection.xlsx
+++ b/Embedded_Qs/convection.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10770" yWindow="675" windowWidth="18015" windowHeight="14700" activeTab="1"/>
+    <workbookView xWindow="10770" yWindow="675" windowWidth="18015" windowHeight="14700" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
   <si>
     <t>Black</t>
   </si>
@@ -164,24 +164,6 @@
     <t>Comment on "Function"</t>
   </si>
   <si>
-    <t>What happens to our discretized term if the 1D temperature field is linear?</t>
-  </si>
-  <si>
-    <t>The second derivative is negative</t>
-  </si>
-  <si>
-    <t>The second derivative is zero</t>
-  </si>
-  <si>
-    <t>The second derivative is positive</t>
-  </si>
-  <si>
-    <t>We'd need more information to know for sure</t>
-  </si>
-  <si>
-    <t>Yep!  Remember that one way to think of the second derivative is as curvature: so the second derivative of a line is zero.</t>
-  </si>
-  <si>
     <t>The flux of energy through the surface is higher</t>
   </si>
   <si>
@@ -234,6 +216,42 @@
   </si>
   <si>
     <t>It shows just the opposite: a higher gradient is necessary in the fluid to create the same flux, which suggest that it is a poor conductor of heat (compared to the solid).</t>
+  </si>
+  <si>
+    <t>According to the plots, what happens to the temperature of the surface and overall flux as the convection becomes more effective?</t>
+  </si>
+  <si>
+    <t>The surface temperature increases, and the flux increases</t>
+  </si>
+  <si>
+    <t>The surface temperature increases, but the flux goes down</t>
+  </si>
+  <si>
+    <t>The surface temperature decreases, but the flux goes up</t>
+  </si>
+  <si>
+    <t>The surface temperature decreases, and the flux goes down</t>
+  </si>
+  <si>
+    <t>Yep!  As the convection becomes more violent, it throws colder fluid next to the surface, cooling the surface.  The cooler surface temperature increases the gradient in the solid, which leads to a larger flux of energy out of the solid.</t>
+  </si>
+  <si>
+    <t>Both gradients get steeper</t>
+  </si>
+  <si>
+    <t>The gradient in the solid gets steeper, but the one in the fluid becomes more shallow</t>
+  </si>
+  <si>
+    <t>Both gradients become more shallow</t>
+  </si>
+  <si>
+    <t>The gradient in the solid becomes more shallow, bu the one in the fluid gets steeper</t>
+  </si>
+  <si>
+    <t>According to the plots, what happens to the temperature gradients *near the wall* as convection becomes more effective? (The behavior at the wall is hard to see, so you might need to reason it out)</t>
+  </si>
+  <si>
+    <t>Yep!  The overall flux is increasing in both the solid and fluid.  That means that the temperature gradients in both must become steeper.</t>
   </si>
 </sst>
 </file>
@@ -608,7 +626,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -619,46 +637,46 @@
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -673,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,7 +706,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -699,46 +717,46 @@
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -751,7 +769,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C5"/>
@@ -765,7 +783,54 @@
     <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -774,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,9 +852,9 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -798,36 +863,36 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>

--- a/Embedded_Qs/convection.xlsx
+++ b/Embedded_Qs/convection.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\My Drive\Colab Notebooks\ENGR_321\Embedded_Qs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\My Drive\Colab Notebooks\ENGR_321\Images_Data_Embedded_Qs\Convection\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10770" yWindow="675" windowWidth="18015" windowHeight="14700" activeTab="3"/>
+    <workbookView xWindow="10770" yWindow="675" windowWidth="18015" windowHeight="14700" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="6" r:id="rId1"/>
@@ -17,9 +17,9 @@
     <sheet name="2_" sheetId="8" r:id="rId3"/>
     <sheet name="3_" sheetId="9" r:id="rId4"/>
     <sheet name="4_" sheetId="1" r:id="rId5"/>
-    <sheet name="5_Quant" sheetId="3" r:id="rId6"/>
-    <sheet name="6_MultAns" sheetId="4" r:id="rId7"/>
-    <sheet name="7_Matching" sheetId="5" r:id="rId8"/>
+    <sheet name="5_" sheetId="3" r:id="rId6"/>
+    <sheet name="6_" sheetId="5" r:id="rId7"/>
+    <sheet name="6_MultAns" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
   <si>
     <t>Black</t>
   </si>
@@ -65,21 +65,9 @@
     <t>You're stupid.</t>
   </si>
   <si>
-    <t>What is 40.1 times 3?</t>
-  </si>
-  <si>
     <t>Leeway</t>
   </si>
   <si>
-    <t>Don't forget to include the density</t>
-  </si>
-  <si>
-    <t>You may have a problem with units</t>
-  </si>
-  <si>
-    <t>Did you add correctly, shithead?</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -107,63 +95,9 @@
     <t>Battlestar Galactica.</t>
   </si>
   <si>
-    <t>Terms</t>
-  </si>
-  <si>
     <t>Correct order of definitions</t>
   </si>
   <si>
-    <t>Definitions</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Metric answer</t>
-  </si>
-  <si>
-    <t>Library</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Library answer</t>
-  </si>
-  <si>
-    <t>Function</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>State answer</t>
-  </si>
-  <si>
-    <t>Metric</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Red herring 1</t>
-  </si>
-  <si>
-    <t>Function defintion</t>
-  </si>
-  <si>
-    <t>Red herring 2</t>
-  </si>
-  <si>
-    <t>Comment on State</t>
-  </si>
-  <si>
-    <t>Comment on "Function"</t>
-  </si>
-  <si>
     <t>The flux of energy through the surface is higher</t>
   </si>
   <si>
@@ -252,6 +186,54 @@
   </si>
   <si>
     <t>Yep!  The overall flux is increasing in both the solid and fluid.  That means that the temperature gradients in both must become steeper.</t>
+  </si>
+  <si>
+    <t>Given what you know about what makes convection effective, do you think that a turbulent flow would tend to increase the effectiveness of convection?</t>
+  </si>
+  <si>
+    <t>Yes, it will increase the effectiveness</t>
+  </si>
+  <si>
+    <t>It would not change its effectiveness</t>
+  </si>
+  <si>
+    <t>No, it would decrease the effectiveness of the convection</t>
+  </si>
+  <si>
+    <t>Yep!  Convection works because it moves fluid far from the wall closer to the wall, and increases temperature gradients in doing so.  The violent disruptions and unpredictable whorls of turbulence are very effective at moving hot packets of fluid next to cold surfaces, and vice versa.</t>
+  </si>
+  <si>
+    <t>All of the given values are in base metric units, so no conversion is necessary.</t>
+  </si>
+  <si>
+    <t>Look at the equation for the critical Reynolds number. How fast would an air flow over a 3 m long plate need to be to achieve a turbulent state before the end of the plate?  (density rho = 1.2 kg/m3, viscosity mu = 1.8 x 10^-5 kg/ms).  Answer in m/s.</t>
+  </si>
+  <si>
+    <t>At the leading edge of the plate (x = 0)</t>
+  </si>
+  <si>
+    <t>Look at the plot of h and delta as a function of x (the distance past the leading edge).  Given an air flow over a plate, approximately how far from the edge of the plate will the *h* be at its maximum if the free stream velocity (u_infinity) is 10 m/s and the plate is 2 m long? Use the material values from the previous question.</t>
+  </si>
+  <si>
+    <t>About 0.75 m from the edge</t>
+  </si>
+  <si>
+    <t>About 1.0 m from the edge</t>
+  </si>
+  <si>
+    <t>At the end of the plate (2.0 m)</t>
+  </si>
+  <si>
+    <t>This would be correct if the flow never transitioned to turbulence (but it does).</t>
+  </si>
+  <si>
+    <t>This is a good answer, but not quite right: the Reynolds number describes the beginnnig of the *transition* to turbulence.  The plot shows that this is actually a low point for h, because the flow is still mostly laminar.</t>
+  </si>
+  <si>
+    <t>Yep!  The max h is found when the flow achieves a fully turbulent flow, which is a small distance past the transition point.</t>
+  </si>
+  <si>
+    <t>The convection coefficient h tends to decrease with length along the plate, so *h* would be relatively low here.</t>
   </si>
 </sst>
 </file>
@@ -626,7 +608,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -637,46 +619,46 @@
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -706,7 +688,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -717,46 +699,46 @@
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -786,7 +768,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -797,7 +779,7 @@
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -805,7 +787,7 @@
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -813,18 +795,18 @@
     </row>
     <row r="4" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -839,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,7 +836,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -865,18 +847,18 @@
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -884,7 +866,7 @@
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -892,7 +874,7 @@
     </row>
     <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -908,10 +890,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,72 +903,86 @@
     <col min="3" max="3" width="72" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="36.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="B2" s="1">
-        <v>120.3</v>
-      </c>
-      <c r="C2" s="1">
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -995,6 +991,89 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -1012,7 +1091,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1023,18 +1102,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -1045,7 +1124,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -1062,113 +1141,18 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Embedded_Qs/convection.xlsx
+++ b/Embedded_Qs/convection.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\My Drive\Colab Notebooks\ENGR_321\Images_Data_Embedded_Qs\Convection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ENGR_321\Images_Data_Embedded_Qs\Convection\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED317E25-0392-40A7-A363-A9650854EF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10770" yWindow="675" windowWidth="18015" windowHeight="14700" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="375" yWindow="315" windowWidth="18480" windowHeight="14700" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="6" r:id="rId1"/>
@@ -19,33 +20,18 @@
     <sheet name="4_" sheetId="1" r:id="rId5"/>
     <sheet name="5_" sheetId="3" r:id="rId6"/>
     <sheet name="6_" sheetId="5" r:id="rId7"/>
-    <sheet name="6_MultAns" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
-  <si>
-    <t>Black</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
   <si>
     <t>Correct</t>
   </si>
@@ -59,60 +45,15 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>You're brilliant!</t>
-  </si>
-  <si>
-    <t>You're stupid.</t>
-  </si>
-  <si>
     <t>Leeway</t>
   </si>
   <si>
     <t>Comments</t>
   </si>
   <si>
-    <t>What is the best kind of bear?</t>
-  </si>
-  <si>
-    <t>Grizzly</t>
-  </si>
-  <si>
-    <t>Polar</t>
-  </si>
-  <si>
-    <t>Brown</t>
-  </si>
-  <si>
-    <t>Koala</t>
-  </si>
-  <si>
-    <t>It's not even a bear, dumbshit.</t>
-  </si>
-  <si>
-    <t>Obviously it's not the grizzly.</t>
-  </si>
-  <si>
-    <t>Battlestar Galactica.</t>
-  </si>
-  <si>
     <t>Correct order of definitions</t>
   </si>
   <si>
-    <t>The flux of energy through the surface is higher</t>
-  </si>
-  <si>
-    <t>The convection coefficient h is lower</t>
-  </si>
-  <si>
-    <t>Which is true of the bottom scenario (compared to the top scenario), assuming that material components are the same?</t>
-  </si>
-  <si>
-    <t>The gradient of temperature near the wall is smaller in magnitude</t>
-  </si>
-  <si>
-    <t>The flux through the solid is the same, but the flux into the liquid is smaller</t>
-  </si>
-  <si>
     <t>The gradients of temperature in the no-slip region and in the solid are smaller, so the flux is lower.</t>
   </si>
   <si>
@@ -182,9 +123,6 @@
     <t>The gradient in the solid becomes more shallow, bu the one in the fluid gets steeper</t>
   </si>
   <si>
-    <t>According to the plots, what happens to the temperature gradients *near the wall* as convection becomes more effective? (The behavior at the wall is hard to see, so you might need to reason it out)</t>
-  </si>
-  <si>
     <t>Yep!  The overall flux is increasing in both the solid and fluid.  That means that the temperature gradients in both must become steeper.</t>
   </si>
   <si>
@@ -206,40 +144,58 @@
     <t>All of the given values are in base metric units, so no conversion is necessary.</t>
   </si>
   <si>
-    <t>Look at the equation for the critical Reynolds number. How fast would an air flow over a 3 m long plate need to be to achieve a turbulent state before the end of the plate?  (density rho = 1.2 kg/m3, viscosity mu = 1.8 x 10^-5 kg/ms).  Answer in m/s.</t>
-  </si>
-  <si>
     <t>At the leading edge of the plate (x = 0)</t>
   </si>
   <si>
-    <t>Look at the plot of h and delta as a function of x (the distance past the leading edge).  Given an air flow over a plate, approximately how far from the edge of the plate will the *h* be at its maximum if the free stream velocity (u_infinity) is 10 m/s and the plate is 2 m long? Use the material values from the previous question.</t>
-  </si>
-  <si>
-    <t>About 0.75 m from the edge</t>
-  </si>
-  <si>
-    <t>About 1.0 m from the edge</t>
-  </si>
-  <si>
-    <t>At the end of the plate (2.0 m)</t>
-  </si>
-  <si>
     <t>This would be correct if the flow never transitioned to turbulence (but it does).</t>
   </si>
   <si>
     <t>This is a good answer, but not quite right: the Reynolds number describes the beginnnig of the *transition* to turbulence.  The plot shows that this is actually a low point for h, because the flow is still mostly laminar.</t>
   </si>
   <si>
-    <t>Yep!  The max h is found when the flow achieves a fully turbulent flow, which is a small distance past the transition point.</t>
-  </si>
-  <si>
     <t>The convection coefficient h tends to decrease with length along the plate, so *h* would be relatively low here.</t>
+  </si>
+  <si>
+    <t>According to the plots, what happens to the x-direction temperature gradients *near the wall* as convection becomes more effective? (The behavior at the wall is hard to see, so you might need to reason it out)</t>
+  </si>
+  <si>
+    <t>At the end of the plate (4.0 m)</t>
+  </si>
+  <si>
+    <t>Which are true concerning the scenarios depicted in the two figures? (Mark all that are true)</t>
+  </si>
+  <si>
+    <t>The flux of energy through the surface is higher in figure B than in A</t>
+  </si>
+  <si>
+    <t>The convection coefficient h is lower in figure B than in A</t>
+  </si>
+  <si>
+    <t>The gradient of temperature near the wall is smaller in magnitude in figure B than in A</t>
+  </si>
+  <si>
+    <t>The flux through the solid is the same, but the flux into the liquid is smaller in figure B than in A</t>
+  </si>
+  <si>
+    <t>Look at the equation for the critical Reynolds number. How fast would an air flow over a 3 m long plate need to be in order that the transition to turbulent flow would begin before the plate ended?  (density rho = 1.2 kg/m3, viscosity mu = 1.8 x 10^-5 kg/ms).  Answer in m/s.</t>
+  </si>
+  <si>
+    <t>Look at the plot of h and delta as a function of x (the distance past the leading edge).  Given an air flow over a plate, approximately where will *h* reach its maximum if the free stream velocity (u_infinity) is 10 m/s and the plate is 4 m long? Use the material values from the previous question.</t>
+  </si>
+  <si>
+    <t>About 0.75 m from the leading edge</t>
+  </si>
+  <si>
+    <t>About 1.0 m from the leading edge</t>
+  </si>
+  <si>
+    <t>Yep!  The max h is found when the flow achieves a fully turbulent flow, which is a small distance past the transition point indicated by the critical Reynolds number.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -590,11 +546,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,59 +562,59 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -670,11 +626,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,57 +644,57 @@
   <sheetData>
     <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -750,7 +706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -768,48 +724,48 @@
   <sheetData>
     <row r="1" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -818,12 +774,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -836,48 +790,48 @@
   <sheetData>
     <row r="1" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -889,7 +843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -906,40 +860,40 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -948,10 +902,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B4:B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -961,15 +917,15 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -982,7 +938,7 @@
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -991,75 +947,75 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="41" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1067,93 +1023,6 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
